--- a/output/1Y_P12_KFSDIV.xlsx
+++ b/output/1Y_P12_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.1692</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.0872</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="F3" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="H3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.0976</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E4" s="1">
-        <v>1885.3025</v>
+        <v>1881.5314</v>
       </c>
       <c r="F4" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="H4" s="1">
-        <v>20922.333</v>
+        <v>20838.713</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20922.333</v>
+        <v>20838.713</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.6084</v>
+        <v>10.6296</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0009</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.8505</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E5" s="1">
-        <v>2786.3982</v>
+        <v>2780.8282</v>
       </c>
       <c r="F5" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="H5" s="1">
-        <v>30233.814</v>
+        <v>30113.032</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30233.814</v>
+        <v>30113.032</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7666</v>
+        <v>10.7882</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>848.3861000000001</v>
+        <v>846.6891000000001</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9151.6139</v>
+        <v>-9153.3109</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0223</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.8576</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E6" s="1">
-        <v>3708.0147</v>
+        <v>3700.5968</v>
       </c>
       <c r="F6" s="1">
-        <v>852.2845</v>
+        <v>850.5594</v>
       </c>
       <c r="H6" s="1">
-        <v>43968.1557</v>
+        <v>43792.4919</v>
       </c>
       <c r="I6" s="1">
-        <v>848.3861000000001</v>
+        <v>846.6891000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>44816.5418</v>
+        <v>44639.181</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7874</v>
+        <v>10.8091</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10106.0483</v>
+        <v>-10105.8361</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1139</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.5699</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E7" s="1">
-        <v>4560.2992</v>
+        <v>4551.1561</v>
       </c>
       <c r="F7" s="1">
-        <v>803.9880000000001</v>
+        <v>802.3625</v>
       </c>
       <c r="H7" s="1">
-        <v>57322.5051</v>
+        <v>57093.3433</v>
       </c>
       <c r="I7" s="1">
-        <v>742.3379</v>
+        <v>740.853</v>
       </c>
       <c r="J7" s="1">
-        <v>58064.8429</v>
+        <v>57834.1963</v>
       </c>
       <c r="K7" s="1">
-        <v>50106.0483</v>
+        <v>50105.8361</v>
       </c>
       <c r="L7" s="1">
-        <v>10.9874</v>
+        <v>11.0095</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10106.0483</v>
+        <v>-10105.8361</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0593</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.5994</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E8" s="1">
-        <v>5364.2872</v>
+        <v>5353.5186</v>
       </c>
       <c r="F8" s="1">
-        <v>743.1246</v>
+        <v>741.6257000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72951.087</v>
+        <v>72659.0257</v>
       </c>
       <c r="I8" s="1">
-        <v>636.2896</v>
+        <v>635.0169</v>
       </c>
       <c r="J8" s="1">
-        <v>73587.3766</v>
+        <v>73294.0426</v>
       </c>
       <c r="K8" s="1">
-        <v>60212.0965</v>
+        <v>60211.6723</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2246</v>
+        <v>11.2471</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2052.1346</v>
+        <v>2048.0203</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8053.9136</v>
+        <v>-8057.8159</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.08110000000000001</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.6663</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E9" s="1">
-        <v>6107.4117</v>
+        <v>6095.1443</v>
       </c>
       <c r="F9" s="1">
-        <v>717.0503</v>
+        <v>715.5454</v>
       </c>
       <c r="H9" s="1">
-        <v>89573.13280000001</v>
+        <v>89214.6271</v>
       </c>
       <c r="I9" s="1">
-        <v>2582.376</v>
+        <v>2577.201</v>
       </c>
       <c r="J9" s="1">
-        <v>92155.5088</v>
+        <v>91791.82799999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70318.14479999999</v>
+        <v>70317.50840000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.5136</v>
+        <v>11.5366</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10516.4752</v>
+        <v>-10515.4402</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1025</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.701</v>
       </c>
       <c r="C10" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D10" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E10" s="1">
-        <v>6824.4621</v>
+        <v>6810.6897</v>
       </c>
       <c r="F10" s="1">
-        <v>715.3578</v>
+        <v>713.8549</v>
       </c>
       <c r="H10" s="1">
-        <v>100326.4169</v>
+        <v>99923.71460000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2065.9008</v>
+        <v>2061.7608</v>
       </c>
       <c r="J10" s="1">
-        <v>102392.3176</v>
+        <v>101985.4754</v>
       </c>
       <c r="K10" s="1">
-        <v>80834.62</v>
+        <v>80832.9486</v>
       </c>
       <c r="L10" s="1">
-        <v>11.8448</v>
+        <v>11.8685</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10516.4752</v>
+        <v>-10515.4402</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0023</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.8109</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E11" s="1">
-        <v>7539.8199</v>
+        <v>7524.5446</v>
       </c>
       <c r="F11" s="1">
-        <v>761.462</v>
+        <v>759.8630000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>104131.6984</v>
+        <v>103713.0558</v>
       </c>
       <c r="I11" s="1">
-        <v>1549.4256</v>
+        <v>1546.3206</v>
       </c>
       <c r="J11" s="1">
-        <v>105681.124</v>
+        <v>105259.3763</v>
       </c>
       <c r="K11" s="1">
-        <v>91351.0952</v>
+        <v>91348.3888</v>
       </c>
       <c r="L11" s="1">
-        <v>12.1158</v>
+        <v>12.1401</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>6142.0159</v>
+        <v>6129.6207</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4374.4593</v>
+        <v>-4385.8195</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0597</v>
+        <v>-0.0601</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.9322</v>
       </c>
       <c r="C12" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D12" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E12" s="1">
-        <v>8301.2819</v>
+        <v>8284.4076</v>
       </c>
       <c r="F12" s="1">
-        <v>975.2575000000001</v>
+        <v>972.7903</v>
       </c>
       <c r="H12" s="1">
-        <v>115655.1191</v>
+        <v>115188.8888</v>
       </c>
       <c r="I12" s="1">
-        <v>7174.9663</v>
+        <v>7160.5011</v>
       </c>
       <c r="J12" s="1">
-        <v>122830.0853</v>
+        <v>122349.3899</v>
       </c>
       <c r="K12" s="1">
-        <v>101867.5704</v>
+        <v>101863.829</v>
       </c>
       <c r="L12" s="1">
-        <v>12.2713</v>
+        <v>12.2958</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13587.4831</v>
+        <v>-13580.2505</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0618</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.5846</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E13" s="1">
-        <v>9276.5394</v>
+        <v>9257.198</v>
       </c>
       <c r="F13" s="1">
-        <v>1079.6913</v>
+        <v>1076.96</v>
       </c>
       <c r="H13" s="1">
-        <v>116741.5377</v>
+        <v>116264.8521</v>
       </c>
       <c r="I13" s="1">
-        <v>3587.4831</v>
+        <v>3580.2505</v>
       </c>
       <c r="J13" s="1">
-        <v>120329.0208</v>
+        <v>119845.1027</v>
       </c>
       <c r="K13" s="1">
-        <v>115455.0535</v>
+        <v>115444.0796</v>
       </c>
       <c r="L13" s="1">
-        <v>12.4459</v>
+        <v>12.4707</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13587.4831</v>
+        <v>-13580.2505</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0941</v>
+        <v>-0.0945</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>12.2867</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E14" s="1">
-        <v>10356.2307</v>
+        <v>10334.158</v>
       </c>
       <c r="F14" s="1">
-        <v>-10356.2307</v>
+        <v>-10334.158</v>
       </c>
       <c r="H14" s="1">
-        <v>127243.8997</v>
+        <v>126718.4787</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>127243.8997</v>
+        <v>126718.4787</v>
       </c>
       <c r="K14" s="1">
-        <v>129042.5366</v>
+        <v>129024.3301</v>
       </c>
       <c r="L14" s="1">
-        <v>12.4604</v>
+        <v>12.4852</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4174.4427</v>
+        <v>4165.7391</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131418.3424</v>
+        <v>130884.2178</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0237</v>
+        <v>-0.0241</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.1692</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.0872</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="F3" s="1">
-        <v>820.5204</v>
+        <v>826.1083</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9097.274100000001</v>
+        <v>-9177.567999999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.0976</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E4" s="1">
-        <v>1803.882</v>
+        <v>1807.5011</v>
       </c>
       <c r="F4" s="1">
-        <v>899.4052</v>
+        <v>901.2047</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20018.7604</v>
+        <v>20018.798</v>
       </c>
       <c r="I4" s="1">
-        <v>902.7259</v>
+        <v>822.432</v>
       </c>
       <c r="J4" s="1">
-        <v>20921.4863</v>
+        <v>20841.2301</v>
       </c>
       <c r="K4" s="1">
-        <v>19097.2741</v>
+        <v>19177.568</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5868</v>
+        <v>10.61</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9981.239600000001</v>
+        <v>-10021.2155</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.8505</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E5" s="1">
-        <v>2703.2872</v>
+        <v>2708.7058</v>
       </c>
       <c r="F5" s="1">
-        <v>983.1789</v>
+        <v>985.1476</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29332.0177</v>
+        <v>29332.0332</v>
       </c>
       <c r="I5" s="1">
-        <v>921.4863</v>
+        <v>801.2166</v>
       </c>
       <c r="J5" s="1">
-        <v>30253.504</v>
+        <v>30133.2497</v>
       </c>
       <c r="K5" s="1">
-        <v>29078.5137</v>
+        <v>29198.7834</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7567</v>
+        <v>10.7796</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>811.7469</v>
+        <v>813.3755</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9856.2354</v>
+        <v>-9897.445299999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0216</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.8576</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E6" s="1">
-        <v>3686.4661</v>
+        <v>3693.8534</v>
       </c>
       <c r="F6" s="1">
-        <v>530.2388</v>
+        <v>531.2963999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43712.64</v>
+        <v>43712.6921</v>
       </c>
       <c r="I6" s="1">
-        <v>1065.2509</v>
+        <v>903.7713</v>
       </c>
       <c r="J6" s="1">
-        <v>44777.8908</v>
+        <v>44616.4634</v>
       </c>
       <c r="K6" s="1">
-        <v>39746.496</v>
+        <v>39909.6042</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7817</v>
+        <v>10.8043</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6287.36</v>
+        <v>-6312.5445</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1124</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.5699</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E7" s="1">
-        <v>4216.7049</v>
+        <v>4225.1498</v>
       </c>
       <c r="F7" s="1">
-        <v>556.6028</v>
+        <v>557.7085</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>53003.5589</v>
+        <v>53003.659</v>
       </c>
       <c r="I7" s="1">
-        <v>4777.8908</v>
+        <v>4591.2268</v>
       </c>
       <c r="J7" s="1">
-        <v>57781.4497</v>
+        <v>57594.8858</v>
       </c>
       <c r="K7" s="1">
-        <v>46033.856</v>
+        <v>46222.1487</v>
       </c>
       <c r="L7" s="1">
-        <v>10.917</v>
+        <v>10.9398</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6996.4411</v>
+        <v>-7024.3938</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0548</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.5994</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E8" s="1">
-        <v>4773.3077</v>
+        <v>4782.8582</v>
       </c>
       <c r="F8" s="1">
-        <v>373.9782</v>
+        <v>374.7433</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64914.1202</v>
+        <v>64913.9086</v>
       </c>
       <c r="I8" s="1">
-        <v>7781.4497</v>
+        <v>7566.8331</v>
       </c>
       <c r="J8" s="1">
-        <v>72695.57000000001</v>
+        <v>72480.74159999999</v>
       </c>
       <c r="K8" s="1">
-        <v>53030.2971</v>
+        <v>53246.5425</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1098</v>
+        <v>11.1328</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1897.5172</v>
+        <v>1901.3174</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3188.3626</v>
+        <v>-3205.1601</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0725</v>
+        <v>0.0723</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.6663</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E9" s="1">
-        <v>5147.2859</v>
+        <v>5157.6016</v>
       </c>
       <c r="F9" s="1">
-        <v>307.3959</v>
+        <v>307.9993</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>75491.6393</v>
+        <v>75491.8141</v>
       </c>
       <c r="I9" s="1">
-        <v>14593.0872</v>
+        <v>14361.673</v>
       </c>
       <c r="J9" s="1">
-        <v>90084.7265</v>
+        <v>89853.4871</v>
       </c>
       <c r="K9" s="1">
-        <v>58116.1769</v>
+        <v>58353.0199</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2906</v>
+        <v>11.314</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4508.3607</v>
+        <v>-4526.2654</v>
       </c>
       <c r="Q9" s="3">
         <v>0.08939999999999999</v>
@@ -1874,34 +1874,34 @@
         <v>14.701</v>
       </c>
       <c r="C10" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D10" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E10" s="1">
-        <v>5454.6818</v>
+        <v>5465.6009</v>
       </c>
       <c r="F10" s="1">
-        <v>667.3507</v>
+        <v>668.6994</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80189.2775</v>
+        <v>80189.10980000001</v>
       </c>
       <c r="I10" s="1">
-        <v>20084.7265</v>
+        <v>19835.4076</v>
       </c>
       <c r="J10" s="1">
-        <v>100274.004</v>
+        <v>100024.5174</v>
       </c>
       <c r="K10" s="1">
-        <v>62624.5376</v>
+        <v>62879.2853</v>
       </c>
       <c r="L10" s="1">
-        <v>11.4809</v>
+        <v>11.5046</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9810.7225</v>
+        <v>-9850.276599999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.8109</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E11" s="1">
-        <v>6122.0325</v>
+        <v>6134.3003</v>
       </c>
       <c r="F11" s="1">
-        <v>1118.6252</v>
+        <v>1120.8563</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>84550.7789</v>
+        <v>84550.9011</v>
       </c>
       <c r="I11" s="1">
-        <v>20274.004</v>
+        <v>19985.131</v>
       </c>
       <c r="J11" s="1">
-        <v>104824.7828</v>
+        <v>104536.032</v>
       </c>
       <c r="K11" s="1">
-        <v>72435.2601</v>
+        <v>72729.56200000001</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8319</v>
+        <v>11.8562</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4909.2136</v>
+        <v>4919.0408</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10540.0075</v>
+        <v>-10592.0415</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0494</v>
+        <v>-0.0499</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.9322</v>
       </c>
       <c r="C12" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D12" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E12" s="1">
-        <v>7240.6577</v>
+        <v>7255.1566</v>
       </c>
       <c r="F12" s="1">
-        <v>654.7213</v>
+        <v>656.0651</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100878.2918</v>
+        <v>100877.8739</v>
       </c>
       <c r="I12" s="1">
-        <v>19733.9965</v>
+        <v>19393.0894</v>
       </c>
       <c r="J12" s="1">
-        <v>120612.2883</v>
+        <v>120270.9634</v>
       </c>
       <c r="K12" s="1">
-        <v>87884.4813</v>
+        <v>88240.6442</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1376</v>
+        <v>12.1625</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9121.708199999999</v>
+        <v>-9158.7345</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0504</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.5846</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E13" s="1">
-        <v>7895.379</v>
+        <v>7911.2217</v>
       </c>
       <c r="F13" s="1">
-        <v>1640.0849</v>
+        <v>1643.3748</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>99360.1872</v>
+        <v>99360.1979</v>
       </c>
       <c r="I13" s="1">
-        <v>20612.2883</v>
+        <v>20234.355</v>
       </c>
       <c r="J13" s="1">
-        <v>119972.4754</v>
+        <v>119594.5529</v>
       </c>
       <c r="K13" s="1">
-        <v>97006.18949999999</v>
+        <v>97399.3787</v>
       </c>
       <c r="L13" s="1">
-        <v>12.2865</v>
+        <v>12.3115</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-20639.8128</v>
+        <v>-20722.6282</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0815</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>12.2867</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E14" s="1">
-        <v>9535.464</v>
+        <v>9554.596600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9535.464</v>
+        <v>-9554.596600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117159.3853</v>
+        <v>117159.4184</v>
       </c>
       <c r="I14" s="1">
-        <v>9972.475399999999</v>
+        <v>9511.7268</v>
       </c>
       <c r="J14" s="1">
-        <v>127131.8607</v>
+        <v>126671.1452</v>
       </c>
       <c r="K14" s="1">
-        <v>117646.0023</v>
+        <v>118122.0069</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3377</v>
+        <v>12.3628</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3552.9206</v>
+        <v>3560.0498</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120712.3059</v>
+        <v>120719.4682</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0219</v>
+        <v>-0.0226</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.1692</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.0872</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="F3" s="1">
-        <v>825.0300999999999</v>
+        <v>830.6271</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9147.274100000001</v>
+        <v>-9227.768599999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.0976</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E4" s="1">
-        <v>1808.3917</v>
+        <v>1812.0199</v>
       </c>
       <c r="F4" s="1">
-        <v>908.4345</v>
+        <v>910.252</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20068.8073</v>
+        <v>20068.845</v>
       </c>
       <c r="I4" s="1">
-        <v>852.7259</v>
+        <v>772.2314</v>
       </c>
       <c r="J4" s="1">
-        <v>20921.5332</v>
+        <v>20841.0764</v>
       </c>
       <c r="K4" s="1">
-        <v>19147.2741</v>
+        <v>19227.7686</v>
       </c>
       <c r="L4" s="1">
-        <v>10.588</v>
+        <v>10.6112</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10081.4427</v>
+        <v>-10121.8202</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.8505</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E5" s="1">
-        <v>2716.8262</v>
+        <v>2722.2719</v>
       </c>
       <c r="F5" s="1">
-        <v>992.6992</v>
+        <v>979.5914</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29478.9223</v>
+        <v>29478.9378</v>
       </c>
       <c r="I5" s="1">
-        <v>771.2832</v>
+        <v>650.4112</v>
       </c>
       <c r="J5" s="1">
-        <v>30250.2054</v>
+        <v>30129.349</v>
       </c>
       <c r="K5" s="1">
-        <v>29228.7168</v>
+        <v>29349.5888</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7584</v>
+        <v>10.7813</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>813.7762</v>
+        <v>815.4089</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9957.5069</v>
+        <v>-9835.0023</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0217</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.8576</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E6" s="1">
-        <v>3709.5254</v>
+        <v>3701.8632</v>
       </c>
       <c r="F6" s="1">
-        <v>549.5579</v>
+        <v>565.7498000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43986.0684</v>
+        <v>43807.4795</v>
       </c>
       <c r="I6" s="1">
-        <v>813.7762</v>
+        <v>815.4089</v>
       </c>
       <c r="J6" s="1">
-        <v>44799.8447</v>
+        <v>44622.8885</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7831</v>
+        <v>10.8054</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6516.4378</v>
+        <v>-6721.8999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.5699</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E7" s="1">
-        <v>4259.0833</v>
+        <v>4267.6131</v>
       </c>
       <c r="F7" s="1">
-        <v>574.29</v>
+        <v>575.431</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>53536.2513</v>
+        <v>53536.3524</v>
       </c>
       <c r="I7" s="1">
-        <v>4297.3384</v>
+        <v>4093.5091</v>
       </c>
       <c r="J7" s="1">
-        <v>57833.5897</v>
+        <v>57629.8615</v>
       </c>
       <c r="K7" s="1">
-        <v>46516.4378</v>
+        <v>46721.8999</v>
       </c>
       <c r="L7" s="1">
-        <v>10.9217</v>
+        <v>10.948</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7218.7675</v>
+        <v>-7247.6106</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0554</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.5994</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E8" s="1">
-        <v>4833.3733</v>
+        <v>4843.044</v>
       </c>
       <c r="F8" s="1">
-        <v>391.7686</v>
+        <v>392.5695</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>65730.97659999999</v>
+        <v>65730.7622</v>
       </c>
       <c r="I8" s="1">
-        <v>7078.5709</v>
+        <v>6845.8985</v>
       </c>
       <c r="J8" s="1">
-        <v>72809.5475</v>
+        <v>72576.66069999999</v>
       </c>
       <c r="K8" s="1">
-        <v>53735.2053</v>
+        <v>53969.5104</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1175</v>
+        <v>11.1437</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1916.5875</v>
+        <v>1920.4259</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3411.2298</v>
+        <v>-3428.9616</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.07340000000000001</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.6663</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E9" s="1">
-        <v>5225.1418</v>
+        <v>5235.6135</v>
       </c>
       <c r="F9" s="1">
-        <v>325.9575</v>
+        <v>326.5978</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>76633.49770000001</v>
+        <v>76633.6752</v>
       </c>
       <c r="I9" s="1">
-        <v>13667.3411</v>
+        <v>13416.9369</v>
       </c>
       <c r="J9" s="1">
-        <v>90300.8388</v>
+        <v>90050.6121</v>
       </c>
       <c r="K9" s="1">
-        <v>59063.0226</v>
+        <v>59318.8979</v>
       </c>
       <c r="L9" s="1">
-        <v>11.3036</v>
+        <v>11.3299</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4780.5901</v>
+        <v>-4799.584</v>
       </c>
       <c r="Q9" s="3">
         <v>0.0905</v>
@@ -2642,34 +2642,34 @@
         <v>14.701</v>
       </c>
       <c r="C10" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D10" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E10" s="1">
-        <v>5551.0993</v>
+        <v>5562.2114</v>
       </c>
       <c r="F10" s="1">
-        <v>694.8131</v>
+        <v>696.217</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81606.711</v>
+        <v>81606.5404</v>
       </c>
       <c r="I10" s="1">
-        <v>18886.751</v>
+        <v>18617.353</v>
       </c>
       <c r="J10" s="1">
-        <v>100493.462</v>
+        <v>100223.8933</v>
       </c>
       <c r="K10" s="1">
-        <v>63843.6128</v>
+        <v>64118.4819</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5011</v>
+        <v>11.5275</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10214.4473</v>
+        <v>-10255.6251</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.8109</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E11" s="1">
-        <v>6245.9124</v>
+        <v>6258.4284</v>
       </c>
       <c r="F11" s="1">
-        <v>1159.8515</v>
+        <v>1162.1649</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>86261.67170000001</v>
+        <v>86261.7963</v>
       </c>
       <c r="I11" s="1">
-        <v>18672.3037</v>
+        <v>18361.7279</v>
       </c>
       <c r="J11" s="1">
-        <v>104933.9753</v>
+        <v>104623.5242</v>
       </c>
       <c r="K11" s="1">
-        <v>74058.06</v>
+        <v>74374.107</v>
       </c>
       <c r="L11" s="1">
-        <v>11.857</v>
+        <v>11.8838</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4995.9894</v>
+        <v>5005.9902</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11022.603</v>
+        <v>-11076.7452</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0503</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.9322</v>
       </c>
       <c r="C12" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D12" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E12" s="1">
-        <v>7405.7639</v>
+        <v>7420.5933</v>
       </c>
       <c r="F12" s="1">
-        <v>689.9903</v>
+        <v>691.4055</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103178.5832</v>
+        <v>103178.1559</v>
       </c>
       <c r="I12" s="1">
-        <v>17649.7006</v>
+        <v>17284.9826</v>
       </c>
       <c r="J12" s="1">
-        <v>120828.2839</v>
+        <v>120463.1385</v>
       </c>
       <c r="K12" s="1">
-        <v>90076.6525</v>
+        <v>90456.84239999999</v>
       </c>
       <c r="L12" s="1">
-        <v>12.163</v>
+        <v>12.19</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9613.082200000001</v>
+        <v>-9652.09</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0513</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.5846</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E13" s="1">
-        <v>8095.7541</v>
+        <v>8111.9988</v>
       </c>
       <c r="F13" s="1">
-        <v>1706.3551</v>
+        <v>1709.778</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>101881.8272</v>
+        <v>101881.8382</v>
       </c>
       <c r="I13" s="1">
-        <v>18036.6185</v>
+        <v>17632.8927</v>
       </c>
       <c r="J13" s="1">
-        <v>119918.4456</v>
+        <v>119514.7308</v>
       </c>
       <c r="K13" s="1">
-        <v>99689.7346</v>
+        <v>100108.9324</v>
       </c>
       <c r="L13" s="1">
-        <v>12.3138</v>
+        <v>12.3408</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-21473.7966</v>
+        <v>-21559.9584</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0834</v>
+        <v>-0.0839</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>12.2867</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E14" s="1">
-        <v>9802.109200000001</v>
+        <v>9821.7768</v>
       </c>
       <c r="F14" s="1">
-        <v>-9802.109200000001</v>
+        <v>-9821.7768</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120435.5754</v>
+        <v>120435.6095</v>
       </c>
       <c r="I14" s="1">
-        <v>6562.8219</v>
+        <v>6072.9343</v>
       </c>
       <c r="J14" s="1">
-        <v>126998.3973</v>
+        <v>126508.5438</v>
       </c>
       <c r="K14" s="1">
-        <v>121163.5312</v>
+        <v>121668.8908</v>
       </c>
       <c r="L14" s="1">
-        <v>12.361</v>
+        <v>12.3877</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3643.0893</v>
+        <v>3650.3995</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124078.6647</v>
+        <v>124086.009</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0225</v>
+        <v>-0.0232</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.1692</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.0872</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="F3" s="1">
-        <v>829.5398</v>
+        <v>835.1458</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9197.274100000001</v>
+        <v>-9277.9692</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.0976</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E4" s="1">
-        <v>1812.9014</v>
+        <v>1816.5386</v>
       </c>
       <c r="F4" s="1">
-        <v>917.5088</v>
+        <v>919.3445</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20118.8542</v>
+        <v>20118.892</v>
       </c>
       <c r="I4" s="1">
-        <v>802.7259</v>
+        <v>722.0308</v>
       </c>
       <c r="J4" s="1">
-        <v>20921.5801</v>
+        <v>20840.9228</v>
       </c>
       <c r="K4" s="1">
-        <v>19197.2741</v>
+        <v>19277.9692</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5893</v>
+        <v>10.6125</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10182.1458</v>
+        <v>-10222.9269</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.8505</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E5" s="1">
-        <v>2730.4102</v>
+        <v>2735.8831</v>
       </c>
       <c r="F5" s="1">
-        <v>978.8102</v>
+        <v>965.6746000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29626.3156</v>
+        <v>29626.3312</v>
       </c>
       <c r="I5" s="1">
-        <v>620.5801</v>
+        <v>499.1039</v>
       </c>
       <c r="J5" s="1">
-        <v>30246.8957</v>
+        <v>30125.4351</v>
       </c>
       <c r="K5" s="1">
-        <v>29379.4199</v>
+        <v>29500.8961</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7601</v>
+        <v>10.783</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>815.8056</v>
+        <v>817.4424</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9804.7744</v>
+        <v>-9681.6615</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0218</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.8576</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E6" s="1">
-        <v>3709.2204</v>
+        <v>3701.5577</v>
       </c>
       <c r="F6" s="1">
-        <v>592.6662</v>
+        <v>608.9443</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43982.4515</v>
+        <v>43803.8639</v>
       </c>
       <c r="I6" s="1">
-        <v>815.8056</v>
+        <v>817.4424</v>
       </c>
       <c r="J6" s="1">
-        <v>44798.2572</v>
+        <v>44621.3063</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7839</v>
+        <v>10.8063</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7027.5986</v>
+        <v>-7235.111</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1131</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.5699</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E7" s="1">
-        <v>4301.8866</v>
+        <v>4310.502</v>
       </c>
       <c r="F7" s="1">
-        <v>592.3569</v>
+        <v>593.5339</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>54074.2839</v>
+        <v>54074.386</v>
       </c>
       <c r="I7" s="1">
-        <v>3788.2071</v>
+        <v>3582.3314</v>
       </c>
       <c r="J7" s="1">
-        <v>57862.491</v>
+        <v>57656.7174</v>
       </c>
       <c r="K7" s="1">
-        <v>47027.5986</v>
+        <v>47235.111</v>
       </c>
       <c r="L7" s="1">
-        <v>10.9319</v>
+        <v>10.9581</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7445.8667</v>
+        <v>-7475.6194</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0559</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.5994</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E8" s="1">
-        <v>4894.2434</v>
+        <v>4904.036</v>
       </c>
       <c r="F8" s="1">
-        <v>410.0606</v>
+        <v>410.8984</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>66558.7742</v>
+        <v>66558.5572</v>
       </c>
       <c r="I8" s="1">
-        <v>6342.3403</v>
+        <v>6106.712</v>
       </c>
       <c r="J8" s="1">
-        <v>72901.1146</v>
+        <v>72665.2692</v>
       </c>
       <c r="K8" s="1">
-        <v>54473.4653</v>
+        <v>54710.7304</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1301</v>
+        <v>11.1563</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1935.849</v>
+        <v>1939.7259</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3640.7289</v>
+        <v>-3659.4219</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0742</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>14.6663</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E9" s="1">
-        <v>5304.304</v>
+        <v>5314.9344</v>
       </c>
       <c r="F9" s="1">
-        <v>345.1581</v>
+        <v>345.8367</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77794.5141</v>
+        <v>77794.6942</v>
       </c>
       <c r="I9" s="1">
-        <v>12701.6114</v>
+        <v>12447.2901</v>
       </c>
       <c r="J9" s="1">
-        <v>90496.12549999999</v>
+        <v>90241.9843</v>
       </c>
       <c r="K9" s="1">
-        <v>60050.0432</v>
+        <v>60309.8782</v>
       </c>
       <c r="L9" s="1">
-        <v>11.321</v>
+        <v>11.3472</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5062.1916</v>
+        <v>-5082.312</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0916</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.701</v>
       </c>
       <c r="C10" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D10" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E10" s="1">
-        <v>5649.4621</v>
+        <v>5660.771</v>
       </c>
       <c r="F10" s="1">
-        <v>723.2522</v>
+        <v>724.7133</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83052.742</v>
+        <v>83052.5683</v>
       </c>
       <c r="I10" s="1">
-        <v>17639.4199</v>
+        <v>17364.9781</v>
       </c>
       <c r="J10" s="1">
-        <v>100692.1618</v>
+        <v>100417.5464</v>
       </c>
       <c r="K10" s="1">
-        <v>65112.2347</v>
+        <v>65392.1902</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5254</v>
+        <v>11.5518</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10632.5307</v>
+        <v>-10675.39</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.8109</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E11" s="1">
-        <v>6372.7143</v>
+        <v>6385.4844</v>
       </c>
       <c r="F11" s="1">
-        <v>1202.6157</v>
+        <v>1205.0147</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88012.9197</v>
+        <v>88013.0469</v>
       </c>
       <c r="I11" s="1">
-        <v>17006.8891</v>
+        <v>16689.5881</v>
       </c>
       <c r="J11" s="1">
-        <v>105019.8088</v>
+        <v>104702.635</v>
       </c>
       <c r="K11" s="1">
-        <v>75744.7654</v>
+        <v>76067.5802</v>
       </c>
       <c r="L11" s="1">
-        <v>11.8858</v>
+        <v>11.9126</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>5084.5159</v>
+        <v>5094.6939</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11524.6898</v>
+        <v>-11581.0219</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0512</v>
+        <v>-0.0518</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.9322</v>
       </c>
       <c r="C12" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D12" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E12" s="1">
-        <v>7575.33</v>
+        <v>7590.499</v>
       </c>
       <c r="F12" s="1">
-        <v>726.9013</v>
+        <v>728.3913</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105541.0129</v>
+        <v>105540.5758</v>
       </c>
       <c r="I12" s="1">
-        <v>15482.1993</v>
+        <v>15108.5662</v>
       </c>
       <c r="J12" s="1">
-        <v>121023.2122</v>
+        <v>120649.142</v>
       </c>
       <c r="K12" s="1">
-        <v>92353.9711</v>
+        <v>92743.296</v>
       </c>
       <c r="L12" s="1">
-        <v>12.1914</v>
+        <v>12.2183</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10127.3337</v>
+        <v>-10168.4151</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0522</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.5846</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E13" s="1">
-        <v>8302.231299999999</v>
+        <v>8318.890299999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1775.5646</v>
+        <v>1779.1263</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104480.2598</v>
+        <v>104480.2711</v>
       </c>
       <c r="I13" s="1">
-        <v>15354.8656</v>
+        <v>14940.1511</v>
       </c>
       <c r="J13" s="1">
-        <v>119835.1254</v>
+        <v>119420.4222</v>
       </c>
       <c r="K13" s="1">
-        <v>102481.3049</v>
+        <v>102911.7111</v>
       </c>
       <c r="L13" s="1">
-        <v>12.3438</v>
+        <v>12.3708</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-22344.7703</v>
+        <v>-22434.427</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0854</v>
+        <v>-0.0859</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>12.2867</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E14" s="1">
-        <v>10077.7959</v>
+        <v>10098.0166</v>
       </c>
       <c r="F14" s="1">
-        <v>-10077.7959</v>
+        <v>-10098.0166</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123822.8547</v>
+        <v>123822.8898</v>
       </c>
       <c r="I14" s="1">
-        <v>3010.0952</v>
+        <v>2505.7241</v>
       </c>
       <c r="J14" s="1">
-        <v>126832.95</v>
+        <v>126328.6139</v>
       </c>
       <c r="K14" s="1">
-        <v>124826.0752</v>
+        <v>125346.1382</v>
       </c>
       <c r="L14" s="1">
-        <v>12.3862</v>
+        <v>12.4129</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3736.0041</v>
+        <v>3743.5006</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127558.8588</v>
+        <v>127566.3904</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0231</v>
+        <v>-0.0239</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.1692</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.0872</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="F3" s="1">
-        <v>834.0495</v>
+        <v>839.6646</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10902.7259</v>
+        <v>10859.1113</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9247.274100000001</v>
+        <v>-9328.169900000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.0976</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E4" s="1">
-        <v>1817.4111</v>
+        <v>1821.0574</v>
       </c>
       <c r="F4" s="1">
-        <v>926.6282</v>
+        <v>928.4820999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20168.9011</v>
+        <v>20168.939</v>
       </c>
       <c r="I4" s="1">
-        <v>752.7259</v>
+        <v>671.8301</v>
       </c>
       <c r="J4" s="1">
-        <v>20921.627</v>
+        <v>20840.7691</v>
       </c>
       <c r="K4" s="1">
-        <v>19247.2741</v>
+        <v>19328.1699</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5905</v>
+        <v>10.6137</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10283.3489</v>
+        <v>-10324.5356</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.8505</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E5" s="1">
-        <v>2744.0393</v>
+        <v>2749.5395</v>
       </c>
       <c r="F5" s="1">
-        <v>964.8751</v>
+        <v>951.7116</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29774.1979</v>
+        <v>29774.2136</v>
       </c>
       <c r="I5" s="1">
-        <v>469.377</v>
+        <v>347.2945</v>
       </c>
       <c r="J5" s="1">
-        <v>30243.5749</v>
+        <v>30121.5081</v>
       </c>
       <c r="K5" s="1">
-        <v>29530.623</v>
+        <v>29652.7055</v>
       </c>
       <c r="L5" s="1">
-        <v>10.7617</v>
+        <v>10.7846</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>817.835</v>
+        <v>819.4758</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9651.541999999999</v>
+        <v>-9527.8187</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0219</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.8576</v>
       </c>
       <c r="C6" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D6" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E6" s="1">
-        <v>3708.9143</v>
+        <v>3701.2512</v>
       </c>
       <c r="F6" s="1">
-        <v>636.2035</v>
+        <v>652.5687</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>43978.8225</v>
+        <v>43800.2362</v>
       </c>
       <c r="I6" s="1">
-        <v>817.835</v>
+        <v>819.4758</v>
       </c>
       <c r="J6" s="1">
-        <v>44796.6574</v>
+        <v>44619.712</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.7848</v>
+        <v>10.8072</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7543.8468</v>
+        <v>-7753.4301</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1131</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.5699</v>
       </c>
       <c r="C7" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D7" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E7" s="1">
-        <v>4345.1178</v>
+        <v>4353.8199</v>
       </c>
       <c r="F7" s="1">
-        <v>610.8094</v>
+        <v>612.0232999999999</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>54617.6967</v>
+        <v>54617.7998</v>
       </c>
       <c r="I7" s="1">
-        <v>3273.9882</v>
+        <v>3066.0457</v>
       </c>
       <c r="J7" s="1">
-        <v>57891.6849</v>
+        <v>57683.8456</v>
       </c>
       <c r="K7" s="1">
-        <v>47543.8468</v>
+        <v>47753.4301</v>
       </c>
       <c r="L7" s="1">
-        <v>10.9419</v>
+        <v>10.9682</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7677.8126</v>
+        <v>-7708.4942</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0565</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.5994</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E8" s="1">
-        <v>4955.9272</v>
+        <v>4965.8432</v>
       </c>
       <c r="F8" s="1">
-        <v>428.8649</v>
+        <v>429.7406</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67397.6363</v>
+        <v>67397.4166</v>
       </c>
       <c r="I8" s="1">
-        <v>5596.1756</v>
+        <v>5357.5515</v>
       </c>
       <c r="J8" s="1">
-        <v>72993.8119</v>
+        <v>72754.96799999999</v>
       </c>
       <c r="K8" s="1">
-        <v>55221.6594</v>
+        <v>55461.9243</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1425</v>
+        <v>11.1687</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1955.303</v>
+        <v>1959.219</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3877.0026</v>
+        <v>-3896.6843</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0752</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.6663</v>
       </c>
       <c r="C9" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D9" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E9" s="1">
-        <v>5384.7921</v>
+        <v>5395.5838</v>
       </c>
       <c r="F9" s="1">
-        <v>365.0147</v>
+        <v>365.7328</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>78974.97659999999</v>
+        <v>78975.15949999999</v>
       </c>
       <c r="I9" s="1">
-        <v>11719.173</v>
+        <v>11460.8672</v>
       </c>
       <c r="J9" s="1">
-        <v>90694.14969999999</v>
+        <v>90436.0267</v>
       </c>
       <c r="K9" s="1">
-        <v>61053.965</v>
+        <v>61317.8276</v>
       </c>
       <c r="L9" s="1">
-        <v>11.3382</v>
+        <v>11.3644</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5353.4144</v>
+        <v>-5374.7001</v>
       </c>
       <c r="Q9" s="3">
         <v>0.09279999999999999</v>
@@ -4178,34 +4178,34 @@
         <v>14.701</v>
       </c>
       <c r="C10" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D10" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E10" s="1">
-        <v>5749.8068</v>
+        <v>5761.3166</v>
       </c>
       <c r="F10" s="1">
-        <v>752.6976</v>
+        <v>754.218</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84527.9094</v>
+        <v>84527.7326</v>
       </c>
       <c r="I10" s="1">
-        <v>16365.7586</v>
+        <v>16086.1671</v>
       </c>
       <c r="J10" s="1">
-        <v>100893.668</v>
+        <v>100613.8997</v>
       </c>
       <c r="K10" s="1">
-        <v>66407.37940000001</v>
+        <v>66692.52770000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5495</v>
+        <v>11.5759</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11065.4076</v>
+        <v>-11110.0077</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.8109</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E11" s="1">
-        <v>6502.5044</v>
+        <v>6515.5346</v>
       </c>
       <c r="F11" s="1">
-        <v>1246.9701</v>
+        <v>1249.4576</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89805.4378</v>
+        <v>89805.56759999999</v>
       </c>
       <c r="I11" s="1">
-        <v>15300.351</v>
+        <v>14976.1594</v>
       </c>
       <c r="J11" s="1">
-        <v>105105.7888</v>
+        <v>104781.7269</v>
       </c>
       <c r="K11" s="1">
-        <v>77472.787</v>
+        <v>77802.53539999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.9143</v>
+        <v>11.9411</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>5174.8261</v>
+        <v>5185.1849</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12046.9528</v>
+        <v>-12105.5592</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0522</v>
+        <v>-0.0527</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.9322</v>
       </c>
       <c r="C12" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D12" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E12" s="1">
-        <v>7749.4745</v>
+        <v>7764.9922</v>
       </c>
       <c r="F12" s="1">
-        <v>765.5214</v>
+        <v>767.0896</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107967.2279</v>
+        <v>107966.7807</v>
       </c>
       <c r="I12" s="1">
-        <v>13253.3982</v>
+        <v>12870.6002</v>
       </c>
       <c r="J12" s="1">
-        <v>121220.6262</v>
+        <v>120837.3809</v>
       </c>
       <c r="K12" s="1">
-        <v>94694.5659</v>
+        <v>95093.2795</v>
       </c>
       <c r="L12" s="1">
-        <v>12.2195</v>
+        <v>12.2464</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10665.397</v>
+        <v>-10708.6478</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0531</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.5846</v>
       </c>
       <c r="C13" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D13" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E13" s="1">
-        <v>8514.995800000001</v>
+        <v>8532.0818</v>
       </c>
       <c r="F13" s="1">
-        <v>1794.8923</v>
+        <v>1757.5182</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>107157.8166</v>
+        <v>107157.8281</v>
       </c>
       <c r="I13" s="1">
-        <v>12588.0012</v>
+        <v>12161.9524</v>
       </c>
       <c r="J13" s="1">
-        <v>119745.8178</v>
+        <v>119319.7805</v>
       </c>
       <c r="K13" s="1">
-        <v>105359.9629</v>
+        <v>105801.9273</v>
       </c>
       <c r="L13" s="1">
-        <v>12.3735</v>
+        <v>12.4005</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-22588.0012</v>
+        <v>-22161.9524</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.08740000000000001</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>12.2867</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E14" s="1">
-        <v>10309.8881</v>
+        <v>10289.5999</v>
       </c>
       <c r="F14" s="1">
-        <v>-10309.8881</v>
+        <v>-10289.5999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126674.5021</v>
+        <v>126172.1035</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126674.5021</v>
+        <v>126172.1035</v>
       </c>
       <c r="K14" s="1">
-        <v>127947.9641</v>
+        <v>127963.8797</v>
       </c>
       <c r="L14" s="1">
-        <v>12.4102</v>
+        <v>12.4362</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3831.7481</v>
+        <v>3839.4368</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130506.2502</v>
+        <v>130011.5403</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4604</v>
+        <v>12.4852</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3377</v>
+        <v>12.3628</v>
       </c>
       <c r="E3" s="1">
-        <v>12.361</v>
+        <v>12.3877</v>
       </c>
       <c r="F3" s="1">
-        <v>12.3862</v>
+        <v>12.4129</v>
       </c>
       <c r="G3" s="1">
-        <v>12.4102</v>
+        <v>12.4362</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.2124</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3124</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2982</v>
+        <v>0.2874</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2987</v>
+        <v>0.2874</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2986</v>
+        <v>0.2871</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2986</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2089</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2256</v>
+        <v>0.2244</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2054</v>
+        <v>0.2047</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2079</v>
+        <v>0.2071</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2102</v>
+        <v>0.2095</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2126</v>
+        <v>0.2119</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.9194</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2945</v>
+        <v>1.2462</v>
       </c>
       <c r="D6" s="4">
-        <v>1.353</v>
+        <v>1.3045</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3391</v>
+        <v>1.2893</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3237</v>
+        <v>1.2735</v>
       </c>
       <c r="G6" s="4">
-        <v>1.3088</v>
+        <v>1.2588</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1848</v>
+        <v>0.176</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1997</v>
+        <v>0.1903</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1949</v>
+        <v>0.1851</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1897</v>
+        <v>0.1798</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1849</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>13216.9794</v>
+        <v>13190.0692</v>
       </c>
       <c r="D8" s="1">
-        <v>11171.3983</v>
+        <v>11193.7835</v>
       </c>
       <c r="E8" s="1">
-        <v>11369.4425</v>
+        <v>11392.2245</v>
       </c>
       <c r="F8" s="1">
-        <v>11572.1745</v>
+        <v>11595.3629</v>
       </c>
       <c r="G8" s="1">
-        <v>11779.7122</v>
+        <v>11803.3165</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P12_KFSDIV.xlsx
+++ b/output/1Y_P12_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>14008.5351</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9813</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.083</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0504</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0185</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
